--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\Poprawy 2026\BASIC_AGR\Basic_AGR\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\2. 2026\BASIC_AGR\Basic_AGR\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55131F82-A057-4D85-8B96-07B036C62FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C4F15-3D0E-4D11-9E0D-5F9B47F87A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_ELC" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>~FI_T</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>PRI_BIOG_AGR</t>
+  </si>
+  <si>
+    <t>REG1</t>
   </si>
 </sst>
 </file>
@@ -903,8 +906,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1074,9 @@
       <c r="S4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="14"/>
+      <c r="T4" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="U4" s="16" t="s">
         <v>23</v>
       </c>
@@ -1105,6 +1110,9 @@
       </c>
       <c r="S5" s="15" t="s">
         <v>22</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
       </c>
       <c r="U5" s="16" t="s">
         <v>24</v>
@@ -1594,6 +1602,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170e58e9-e7cd-474a-92db-e9a604da91e6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003072D86D12BBB4489DD10379CB2942C4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafb5670a5d5d2b7ddeeb452f3034230">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="170e58e9-e7cd-474a-92db-e9a604da91e6" xmlns:ns3="2993e53c-5804-4a67-93fb-28b8362cd015" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b35fe0e36b0ef8e9c2fbdc19245eaaa" ns2:_="" ns3:_="">
     <xsd:import namespace="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
@@ -1788,27 +1816,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04ADC56F-6F99-416D-857C-9326ECC3E5CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
+    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170e58e9-e7cd-474a-92db-e9a604da91e6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B140F9D-34E6-48A4-B2AC-8BFCDECC6FB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC1F11E-0DCF-416B-8487-DBDB1003184D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1825,23 +1852,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B140F9D-34E6-48A4-B2AC-8BFCDECC6FB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04ADC56F-6F99-416D-857C-9326ECC3E5CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
-    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\2. 2026\BASIC_AGR\Basic_AGR\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C4F15-3D0E-4D11-9E0D-5F9B47F87A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BFC71B-A30E-41DE-ACA4-68396253DBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="18420" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_ELC" sheetId="4" r:id="rId1"/>
@@ -906,8 +906,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1295,9 +1295,6 @@
       <c r="G16" s="19">
         <v>4.9399999999999993E-2</v>
       </c>
-      <c r="H16" s="19">
-        <v>3.95E-2</v>
-      </c>
       <c r="I16" s="19"/>
       <c r="M16" s="19"/>
       <c r="O16" s="19"/>
@@ -1314,7 +1311,9 @@
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="19">
+        <v>3.95E-2</v>
+      </c>
       <c r="I17" s="18"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -1602,6 +1601,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
@@ -1610,15 +1618,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1817,20 +1816,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B140F9D-34E6-48A4-B2AC-8BFCDECC6FB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04ADC56F-6F99-416D-857C-9326ECC3E5CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
     <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B140F9D-34E6-48A4-B2AC-8BFCDECC6FB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\2. 2026\BASIC_AGR\Basic_AGR\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BFC71B-A30E-41DE-ACA4-68396253DBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2904BB30-7C72-41A5-998D-1433D9E3CE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="18420" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_ELC" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>~FI_T</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>REG1</t>
+  </si>
+  <si>
+    <t>Share-I</t>
+  </si>
+  <si>
+    <t>Share-I~0</t>
   </si>
 </sst>
 </file>
@@ -320,28 +326,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -377,6 +361,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -397,7 +407,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -407,15 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -435,19 +436,42 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="16"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="16" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -904,430 +928,597 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:AA37"/>
+  <dimension ref="A2:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="2" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.33203125" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" customWidth="1"/>
-    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.33203125" customWidth="1"/>
-    <col min="27" max="27" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.5703125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.28515625" customWidth="1"/>
+    <col min="23" max="23" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" customWidth="1"/>
+    <col min="28" max="28" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="1"/>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="12" t="s">
+      <c r="Q3" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AA3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AB3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
         <v>2005</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26">
         <v>1</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>11.272831050228312</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="19">
         <v>0</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="20">
         <v>1.48125</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="26">
         <v>25</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="22">
+      <c r="N4" s="27"/>
+      <c r="O4" s="26">
         <v>1</v>
       </c>
-      <c r="P4" s="31"/>
-      <c r="S4" s="15" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="22"/>
+      <c r="T4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="U4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="V4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="W4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="X4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Y4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="7" t="s">
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
+      <c r="C5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="19">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="26">
         <v>0.22134999999999999</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="25">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="20">
         <v>0.20329794443189519</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="Q5" s="24">
+        <v>3.9503432358734485E-2</v>
+      </c>
+      <c r="R5" s="22">
+        <v>3</v>
+      </c>
+      <c r="T5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="V5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="W5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="X5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="Y5" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="7" t="s">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="16"/>
+      <c r="C6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="19">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="26">
         <v>0.22134999999999999</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="25">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="20">
         <v>0.20329794443189519</v>
       </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="7" t="s">
+      <c r="Q6" s="24">
+        <v>8.4102126741297106E-3</v>
+      </c>
+      <c r="R6" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B7" s="16"/>
+      <c r="C7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="19">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="26">
         <v>0.19190000000000002</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="25">
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="20">
         <v>0.23449713392391869</v>
       </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="7" t="s">
+      <c r="Q7" s="24">
+        <v>2.1270586943794263E-2</v>
+      </c>
+      <c r="R7" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B8" s="16"/>
+      <c r="C8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="19">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="26">
         <v>0.22134999999999999</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="25">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="20">
         <v>0.20329794443189519</v>
       </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="7" t="s">
+      <c r="Q8" s="24">
+        <v>6.5584749927887608E-3</v>
+      </c>
+      <c r="R8" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B9" s="16"/>
+      <c r="C9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="19">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="26">
         <v>0.22134999999999999</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="25">
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="20">
         <v>0.20329794443189519</v>
       </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="7" t="s">
+      <c r="Q9" s="24">
+        <v>2.3875705905262001E-2</v>
+      </c>
+      <c r="R9" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B10" s="16"/>
+      <c r="C10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="19">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="26">
         <v>0.22134999999999999</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="25">
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="20">
         <v>0.20329794443189519</v>
       </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="7" t="s">
+      <c r="Q10" s="24">
+        <v>6.3896829648978333E-3</v>
+      </c>
+      <c r="R10" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B11" s="16"/>
+      <c r="C11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="19">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="26">
         <v>0.22134999999999999</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="25">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="20">
         <v>0.20329794443189519</v>
       </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="7" t="s">
+      <c r="Q11" s="24">
+        <v>5.8006330714347756E-2</v>
+      </c>
+      <c r="R11" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B12" s="16"/>
+      <c r="C12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="19">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="26">
         <v>0.22134999999999999</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="25">
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="20">
         <v>0.20329794443189519</v>
       </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="7" t="s">
+      <c r="Q12" s="24">
+        <v>8.2023634476987304E-4</v>
+      </c>
+      <c r="R12" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="19">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="26">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="25">
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="20">
         <v>1.0617059891107077</v>
       </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="7" t="s">
+      <c r="Q13" s="24">
+        <v>0.37574134004647641</v>
+      </c>
+      <c r="R13" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B14" s="16"/>
+      <c r="C14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="19">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="26">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="25">
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="20">
         <v>1.0617059891107077</v>
       </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="7" t="s">
+      <c r="Q14" s="24">
+        <v>0.24169799553269838</v>
+      </c>
+      <c r="R14" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="19">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="26">
         <v>7.6E-3</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="25">
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="20">
         <v>7.6973684210526319</v>
       </c>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="7" t="s">
+      <c r="Q15" s="24">
+        <v>0.16808448388662312</v>
+      </c>
+      <c r="R15" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B16" s="16"/>
+      <c r="C16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="19">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="26">
         <v>4.9399999999999993E-2</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="25">
+      <c r="H16" s="20"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="20">
         <v>1.1842105263157896</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27" t="s">
+      <c r="Q16" s="24">
+        <v>4.9154789901687937E-2</v>
+      </c>
+      <c r="R16" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15">
         <v>3.95E-2</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="28"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I17" s="15"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="23"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="J22" s="2"/>
@@ -1335,262 +1526,464 @@
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="35" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="Q23" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20">
         <v>2005</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21">
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20">
         <v>1</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="20">
         <v>5.2511415525114149</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="20">
         <v>0</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="20">
         <v>0.57499999999999996</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="20">
         <v>25</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22">
+      <c r="N24" s="20"/>
+      <c r="O24" s="26">
         <v>1</v>
       </c>
-      <c r="P24" s="23"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="7" t="s">
+      <c r="P24" s="20"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="22"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
+      <c r="C25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="7">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20">
         <v>0.30590000000000001</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="25">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="20">
         <v>0.14024190912062767</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="7" t="s">
+      <c r="Q25" s="24">
+        <v>3.9503432358734485E-2</v>
+      </c>
+      <c r="R25" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+      <c r="C26" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="7">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20">
         <v>0.30590000000000001</v>
       </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="25">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="20">
         <v>0.14024190912062767</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="7" t="s">
+      <c r="Q26" s="24">
+        <v>8.4102126741297106E-3</v>
+      </c>
+      <c r="R26" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="7">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20">
         <v>0.38855000000000001</v>
       </c>
-      <c r="O27" s="19"/>
-      <c r="P27" s="25">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="20">
         <v>0.11041050057907605</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="7" t="s">
+      <c r="Q27" s="24">
+        <v>2.1270586943794263E-2</v>
+      </c>
+      <c r="R27" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="16"/>
+      <c r="C28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="7">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20">
         <v>0.30590000000000001</v>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="25">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="20">
         <v>0.14024190912062767</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="7" t="s">
+      <c r="Q28" s="24">
+        <v>6.5584749927887608E-3</v>
+      </c>
+      <c r="R28" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="16"/>
+      <c r="C29" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="7">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20">
         <v>0.30590000000000001</v>
       </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="25">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="20">
         <v>0.14024190912062767</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="7" t="s">
+      <c r="Q29" s="24">
+        <v>2.3875705905262001E-2</v>
+      </c>
+      <c r="R29" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="16"/>
+      <c r="C30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="7">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20">
         <v>0.30590000000000001</v>
       </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="25">
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="20">
         <v>0.14024190912062767</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="7" t="s">
+      <c r="Q30" s="24">
+        <v>6.3896829648978333E-3</v>
+      </c>
+      <c r="R30" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="16"/>
+      <c r="C31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="7">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20">
         <v>0.30590000000000001</v>
       </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="25">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="20">
         <v>0.14024190912062767</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="7" t="s">
+      <c r="Q31" s="24">
+        <v>5.8006330714347756E-2</v>
+      </c>
+      <c r="R31" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="16"/>
+      <c r="C32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="7">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20">
         <v>0.30590000000000001</v>
       </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="25">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="20">
         <v>0.14024190912062767</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="7" t="s">
+      <c r="Q32" s="24">
+        <v>8.2023634476987304E-4</v>
+      </c>
+      <c r="R32" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="16"/>
+      <c r="C33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="7">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20">
         <v>9.7849999999999993E-2</v>
       </c>
-      <c r="O33" s="19"/>
-      <c r="P33" s="25">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="20">
         <v>0.56995401124169653</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="7" t="s">
+      <c r="Q33" s="24">
+        <v>0.37574134004647641</v>
+      </c>
+      <c r="R33" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" s="16"/>
+      <c r="C34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="7">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20">
         <v>9.7849999999999993E-2</v>
       </c>
-      <c r="O34" s="19"/>
-      <c r="P34" s="25">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="20">
         <v>0.56995401124169653</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="7" t="s">
+      <c r="Q34" s="24">
+        <v>0.24169799553269838</v>
+      </c>
+      <c r="R34" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="16"/>
+      <c r="C35" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="7">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20">
         <v>1.1875E-2</v>
       </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="25">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="20">
         <v>4.6964210526315791</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
-      <c r="C36" s="7" t="s">
+      <c r="Q35" s="24">
+        <v>0.16808448388662312</v>
+      </c>
+      <c r="R35" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="16"/>
+      <c r="C36" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="7">
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20">
         <v>8.8349999999999998E-2</v>
       </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="25">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="20">
         <v>0.63123938879456709</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27" t="s">
+      <c r="Q36" s="24">
+        <v>4.9154789901687937E-2</v>
+      </c>
+      <c r="R36" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27">
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18">
         <v>2.3E-2</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="28"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
